--- a/1.xlsx
+++ b/1.xlsx
@@ -5486,14 +5486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="B1001" sqref="B1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="109.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="161" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -12260,5 +12260,6 @@
     <hyperlink ref="A542" r:id="rId11" tooltip="Open Company Report"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>